--- a/biology/Botanique/Vernicia_montana/Vernicia_montana.xlsx
+++ b/biology/Botanique/Vernicia_montana/Vernicia_montana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vernicia montana est une espèce de plantes à fleurs du genre Vernicia et de la famille des Euphorbiaceae, originaire de l'Asie du Sud-est (Birmanie, Sud de la Chine, Thaïlande).
 C'est un arbre de taille moyenne à feuilles caduques atteignant une hauteur de 9 à 14 m. Les feuilles sont grandes, trilobées. Les fleurs blanches monoïques sont groupées en grappes contenant à la fois fleurs mâles et femelles. Le fruit, qui fait 5 à 7 cm de diamètre, est une drupe globuleuse à la peau ridée qui passe du vert au jaune à maturité. Chaque fruit contient 3 graines, riches en huile.
@@ -512,9 +524,11 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vernicia montana est principalement cultivé pour ses graines à partir desquelles on extrait une huile très prisée pour la finition et le vernissage du bois, l'huile d'abrasin ou huile de tung, semblable à celle de Vernicia fordii[2]. L'huile d'abrasin est également utilisé comme insecticide et comme purgatif[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vernicia montana est principalement cultivé pour ses graines à partir desquelles on extrait une huile très prisée pour la finition et le vernissage du bois, l'huile d'abrasin ou huile de tung, semblable à celle de Vernicia fordii. L'huile d'abrasin est également utilisé comme insecticide et comme purgatif.
 Préférant les sols sablonneux bien drainés, les arbres sont cultivés dans des plantations à flanc de colline dans le nord du Vietnam. Dans la nature, V. montana peut être trouvé à la lisière des forêts primaires.
 Son bois est exploité.
 </t>
@@ -545,7 +559,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aleurites montanus (Lour.) E.H.Wilson
 Aleurites vernicius (Corrêa) Hassk.</t>
